--- a/golf_streamlit/data/runder/Runde_202502_02.xlsx
+++ b/golf_streamlit/data/runder/Runde_202502_02.xlsx
@@ -479,19 +479,11 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -499,19 +491,11 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -519,19 +503,11 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -539,19 +515,11 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -559,19 +527,11 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
@@ -579,19 +539,11 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -599,19 +551,11 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -619,19 +563,11 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
@@ -639,19 +575,11 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
     </row>
@@ -659,19 +587,11 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -679,19 +599,11 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -699,19 +611,11 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
@@ -719,19 +623,11 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
@@ -739,19 +635,11 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
     </row>
@@ -759,19 +647,11 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
     </row>
@@ -779,19 +659,11 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
     </row>
@@ -799,19 +671,11 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -819,19 +683,11 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
     </row>
